--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/51_Kilis_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/51_Kilis_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351ABA9F-33F2-4342-BF86-7DC9D4658B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B47F4308-40A0-4796-A39F-8471537F45CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{597819C1-15B9-4D5B-8CA6-BFFE5102CC09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C15489C-D032-41F1-885A-97A3910A2641}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F1850592-20D2-4195-A35C-EB45BA851418}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{728A21A1-1B7C-4A9E-B931-3D3803455F16}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{373E46E0-BFE4-40D3-8535-E854D00381DD}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{82544E04-3C62-4FD5-8D98-BC2BE2DF1077}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{5B516A6A-226A-4ADC-8635-E4068F89E3DE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{5C8DB272-FF3D-4D5A-8430-72E3B4E37DC4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{D786385C-05D7-434B-9573-B214E1BEDFB8}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{07730B31-7E6E-4604-A60E-0033FA5AFFEB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC05C29C-2B7E-410A-B469-3D01969BB08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11F7C47-AB4D-40D9-8AF6-F076A81B641C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2417,18 +2417,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63669375-0A19-46DC-9EAA-D85399EAC32C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FC32DB4E-C82C-4A0F-835B-DC32885E46E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81B5EF8F-6AB1-4FCE-8FA3-E8ED8914FB44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{79E3BAEA-E701-4C68-853A-969E6D66C8A1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{08510EEE-BB3C-4F8A-8DE7-1AD88C8D1B48}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8703611E-B70E-403D-9395-06DAD79F25CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{90DB501F-0DAD-44B0-95B4-673A85DC867A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8A684278-19DE-4B28-9EDF-EAF072F266B3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FED4C532-AC3B-498B-9214-E9C6ECFBE56F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7CA07B0-8D77-4F24-89F0-2EA8629AA357}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9244CE94-7D42-4CCB-B54B-7D5F0FFC11E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0759D584-55A5-4C1E-BD43-836E394C2D33}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16418A64-FF12-4F3F-BCE2-E91A72D761D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0EE00657-2F36-429E-98AC-BA04A8ED08AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F8F01DBE-7B8E-452A-A7B6-0130FC2DCCFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F688D69D-4C3C-44C2-8E1B-D81DAFD271DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6AB84DA8-DAA6-47AE-80A0-D0513598C665}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BBC5A52D-A0C4-46F2-AF17-E2719EF74DAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1ED62E35-0167-4C5E-88DD-3857089F0F07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7026D136-A98F-4ADB-A2B5-07185DC5D0E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0E24CB3E-0351-47AE-9603-F6DD41D5053D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44D1304F-637F-4FF5-B648-35C0A78AEDF5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0DA935E7-D91A-4BBE-864C-B3774D608062}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{24723456-8E03-4556-B364-0CA29CE61CB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2441,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C825AD3-FAA0-4B41-A3DD-82F7ED2EF738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3E0E85-9CF7-446D-8554-48C9056B70C1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3600,18 +3600,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{291BCFA3-CCA8-457F-825C-D9E3EDB7776D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4B05CF2A-DF62-44E3-944A-ED1605E99DBD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1F96A925-28ED-4D63-9B8B-1A4EF91E04B1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2568E695-4209-4E72-85C6-D56ABBADCC93}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{59EDD527-7FC8-40EE-B13F-8D029B02C753}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3C06E0D0-680C-4848-A743-87362E338E54}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{79DF862C-CAA4-490F-8A71-C8953F127615}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B65FC753-84F0-4519-B035-542ACBEED5F3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{32558A87-CEF8-4A9A-809D-97FF4A503B78}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{24C6625C-049A-4F48-8B03-49F55263F3B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{59FECDAD-72C8-44E3-BC7A-79DCC54920B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8B380244-0C43-489A-920F-ACD408900FFE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A260F557-048C-4807-AE19-4223836F98DF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5F1B9CCE-1DE9-4FAF-8EC7-1396842663C7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{38E33C82-22D9-47D9-A1C0-9490916D23C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{67915378-C947-4DD6-9DC9-FC15C8E6B09C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{10ED9FF1-71FE-4639-A8C7-7AC18E8E59B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{49F10370-FBBC-4093-A9D2-FC27648A23FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BCCE1319-D014-415A-94C2-8DB3B9790104}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3CE3575E-1FB8-4C8A-B97B-691FC16E3B1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2F4B130F-FC3B-4D46-A7B6-D21A59B7036E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C89DEB93-7272-4807-AEE5-E518E48A80C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C3BF8227-B1F5-41C7-9649-C6FF44856E00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2BF318A6-8680-48DF-BBBC-A3A8EB0583C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3624,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC108854-9C2A-4E79-A54E-2C1C0F9AD9A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B32B55-6730-4E79-B15F-127EAC0572DF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4783,18 +4783,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ADED5022-F978-4A95-9A8E-CC4190473F3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{29725660-67A3-46B1-A964-61F9C8E821B8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CBA7755A-53B6-44F0-A17E-14F79F51078D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D0A53571-9856-485D-8E3B-7CD2F43BA8D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FFC69994-B8F5-4406-BB41-44725CCC1D21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B77EEBE2-5C31-4FEE-AB07-EB8BD3B94318}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{479307A8-4C44-4554-A5A1-52100D0B229A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{74592B7B-C228-4B8D-93B8-BAB66950FDFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1CC893EF-58BF-4616-8EC4-C6E71F762AA8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{16E885B6-B458-4257-9384-7EBBEC1CA812}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1EC5DD38-E00F-4B5A-ADCB-698B9A18342C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D083D58-20A2-4452-8878-DEEF6CA5F9E0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2813A71A-D3CA-43BF-A43D-85C8CF09FF4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{46AC3BE8-802D-4D71-A248-A4C620425836}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FA5A65F4-F43F-4360-B7A3-52E3BFE6C40F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{561BB90D-2CC1-468E-A662-02821C13034D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7240ABB7-1542-41E8-9842-559D4CC74D8D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{838E2F63-BDE6-4125-AFE4-5FD592AE3840}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{731D3EA8-989B-4D95-8896-7BA3873536C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D2077A9-88F9-4FB3-B5B3-E8D451802704}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EB08B48E-120E-4854-9026-A31722FEE7B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E7538BE0-3941-4649-BFAC-191156C67F42}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{56F66B88-A148-4C28-9F72-BD07462B87D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4576BC1C-E592-4595-86BF-208FE3DD2807}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4807,7 +4807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ED7BA7-7481-4DF4-96DA-5A497E576D02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C938D6-2A9A-4967-BF5B-5AA45FC19A7D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5936,18 +5936,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F2C3B629-41B1-411D-BB2D-CD4B1DAA592D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7E9043A3-71C0-423F-9959-E9709ABB1F97}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7943C5A1-D36A-4E11-B309-6662AB770B25}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38C3D29A-99AE-49A5-A729-A6C213F9C17F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E9C2DC47-E6A5-477B-A520-6EEEE9D8F838}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C0E2A101-5275-4E9B-B908-3A9990300C4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{755ED032-2F0A-487C-BA3B-908C9F5C6D3A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B71E9D94-4E9E-4142-8CF5-0936EF27CC9B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F31294FC-7F60-4B3C-9368-F52754457B5B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D16E82D-E9D1-4C2B-B1CA-607DACF08791}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{66BAC187-082C-4ABE-B47F-E1CF49C9314F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E06A763F-936A-4EA7-ABEE-2A3019426128}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8AC5A7A3-D3B8-4AE2-ACDB-C57EEA863019}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{34B23E25-13F9-424F-AB1E-B867B6FBA7C5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{08C43055-9CFB-4EA4-BCD0-3DA6D25AD086}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{98B12121-4565-4CEC-A146-5E97F76B6B73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F3D761A-1EAF-4BE7-99C0-7C3CE4599975}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FCBA91CD-B70C-44E7-B0D0-891EC3D9B260}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{40AD9CB2-53E2-4659-9DB3-775A3B37E02E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{39CA4265-FD0B-4A25-B18E-165D0DFC7C6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1F1B88C6-2616-40FE-BA3D-B2345A60A24A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DFB0B6CE-804B-470B-88CB-67B5D7C31E94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{71CEFB52-C919-4465-92A1-940A2B3E7CB0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC5C4ACC-1538-4398-83BF-B0D323116C56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5960,7 +5960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E522B84-FAC4-4D29-80AF-74B8141827FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFC4868-A178-4D18-811D-AE0B313E4096}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7143,18 +7143,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{620556D5-B0F5-4B26-8288-898985129C8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C0DDD834-DD82-4B59-97E0-379BEF0DE336}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{71E2F319-6513-43A9-9787-1DF7089B40E1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2CFB3929-1C26-48E5-8F6A-980A082A7D34}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D1146DF7-4912-4E1D-8F3C-30CC715FF70E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1F1178C8-911E-475A-9D9E-EE6F0FDDFEE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5E202F4C-9C6D-40B8-AD3B-9EAE0E20BCE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DADB739A-771D-43E2-B4D1-83812BC82D6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9102CCE8-700A-420A-B3C2-303D908E40A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9D30AA90-4512-4462-BF96-4A39E7744725}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{873F9C3B-6D6A-425F-AC6E-BEAF51E28F77}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{91B26AF1-420D-41BF-A9B9-A513A3F4943A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A50B82CD-3E64-4F23-8EE1-C08BAF91C8D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AFF6BB69-034E-433C-A824-92EE89C8451B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2C9BB0F2-4CE1-4155-BFA8-A5AAE220AFE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8526B491-196A-4F97-9539-A66C395CF623}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EF03B391-A84B-4EC0-9326-61C6BFC83AD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{67D4F088-C7A6-43E6-8C8A-06A9B448DA5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3DB22F48-4C31-4963-8463-2A40CEFED521}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4F5A64B9-9B39-4CFA-AC5E-5D4E43636FE7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DB47346B-EF04-4537-8E1C-91079C5DD993}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EB84107B-017C-4782-8623-6D2FD2373CDB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D169DEF-6D66-4722-B4C3-C592C224B8B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{967F1319-719A-42D8-946F-7625DC98FFF9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7167,7 +7167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181941EE-C126-4CE1-A17C-2CB43313FA2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BDB23F-369A-42B7-AB6E-C3FDC92645E1}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8350,18 +8350,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{001B35D1-41F7-49BC-9AEF-9AD0EA7198DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B300B0B2-EE23-46F7-AE84-D404C3096566}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AA102AD2-CCE8-48B4-BED4-D30749F5B06B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6254548F-E85D-4E34-B5C9-2B3DDE511A28}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DAB7FC53-2DC1-4D59-A22C-F8B678ADB727}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{38029F43-B6FE-4CED-93C9-C04F7B7D4A78}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9F562EC2-A773-4B38-96AB-C5F0FF9447F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5851DD5A-3F42-4E03-8593-F2383D873814}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3AC83F05-C3EC-4E31-8B44-9DB1C5E4D4A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D780E893-7E3D-4770-BDFE-FCF7D8ABFD83}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{838D7F56-238A-4E62-B80C-FA5CC4A9F9C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3B7B306A-A4A2-4213-AA69-CDB374638CBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{30FC7BDF-7935-4C6C-B1E1-31F25D7C46E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FD67AE8B-3677-4D4C-8B5B-8D03D5E3F20C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B3EC6215-7417-4EE8-8ECB-06EC55BBCB92}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{99102A76-ABDC-4229-99AC-C04506FF9278}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{ED585646-7EFB-4113-93EB-05017A4624DE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{01448907-6977-4A70-A65A-F41284E0F52D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{65831CD7-762B-43B2-94E7-366425472215}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{37C18CDA-E1E3-4D65-BCC3-7A6532FED5DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F4DAA354-0BCC-429B-8289-70AB0C4DF115}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4BD2A46F-CC24-4B74-A8B2-9698F244671E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E84D881E-746D-4F2B-9638-2AB956603834}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{24231CAB-B177-46B9-85DD-55BBA501B924}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8374,7 +8374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C93D14-9A5D-4EBF-9485-BE7046ADD3C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CCD266-2AE5-4747-9008-755D4FE85FE6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9553,18 +9553,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{84338F32-A7AD-42DD-A22D-F138B05FEC05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85118BE7-B4D4-4BDD-84C1-5B5AF8B18EE2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BD0DD6AF-AFD1-4D9F-AF7D-DA8085DBF1BC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{26C0A592-313A-4EC1-97DE-88F77DD3BEBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D4297131-8A11-4FE1-AED3-E3F09B20A8EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{869562C7-E456-4232-899C-F9DA5E6C38E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{72A67862-8C97-44A1-98E5-BEAE00BD5658}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2F08A830-1122-4320-8D79-9FD65BE07EE2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B76E423E-AFD4-4911-AC31-D0171341A554}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FC99B523-886D-4A50-BC61-6922AE2EF2AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{31349693-58C5-4D6B-A330-199800BEAD7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{008B65B0-B03A-4FB4-BE20-3A33E8E56D75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D2C95C83-6F62-44BE-8F56-C556D0117B4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1FCD864F-3DD7-4623-B7A5-466BDA506928}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2012CC6B-9A43-4C47-9DA0-774B362AFFDA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1FA6F62A-C4A0-42D9-A58A-75C399DBA8E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B7C95B80-1CD9-44A7-8990-72A1DFCB7199}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8771E49D-7960-47AF-AECA-4D25EAE1B33B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{223E24D7-4504-432C-928A-ECD4AB623220}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E09C2E26-9AB4-4926-B0CC-1D9334223928}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{280F129B-A67E-476E-9B71-0ACD993DE05E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A370E6FE-C542-4F59-8866-4007254AEA13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D95D3907-C89C-4A41-A957-C3153B76AB85}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03663866-6FFB-4766-9BFD-E9B2A97D1935}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9577,7 +9577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEF567-0364-4CDA-9E61-2D14B017D86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4892FB26-330C-4161-9CDA-A5180A27BCD7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10752,18 +10752,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{99FC2F24-A0F0-49B9-8E13-4199BE6F7A0F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A6358D3B-B5A7-4AFE-B058-EEC303CE33A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9C407C9C-095F-4568-A9FB-F56C6B81E402}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E0A04609-582D-467A-9A39-405CE93AA082}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AAAF53A4-04ED-4F7D-9845-015787BF566E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{61493BCD-1A91-4802-8839-28E99E0005D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B6036441-2B89-4CDC-9F27-B420CB942164}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{50ADF7E6-E5B7-43F2-8CE9-B348C992E7D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B5245EEC-59B8-47DE-BA41-DD983469F3D5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5E024203-03CD-4F7C-90D2-29263526F315}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9DFFB0AB-48BC-4AD3-8B16-60019AA76019}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD0D5553-3E0D-4AE8-819E-EB120A4E673E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5D22ED5B-B07D-43EA-A777-FD611E181C78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6F7607BA-5AC2-410C-A5C4-B7B0C05742B0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{01121DF7-72FF-4E1A-AC6A-F40FBDD12420}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AADB5917-17D7-4A5B-BC7A-7E835DA4B818}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B042EFDE-0FB9-4859-80D6-6DE3C377E6BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CB2ADBC5-E115-44EE-9EA7-52ED374503DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A4830536-C689-4F3A-9F1B-3134125066D7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E764B9A-FFBE-42E8-BB35-6F3B2C7BFC22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{872CED3E-A46D-4EE0-A645-D55E2DA45F9C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2980B53C-9238-4105-A2C8-3F098E877777}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A220EAE1-6901-4FD4-9A30-6AFAA90A21F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{169B135F-CCCB-45DC-828B-C65C39605F3C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10776,7 +10776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075AD79E-DD69-49DF-BCC9-53B5963504D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4135EC-248C-42A4-A41D-80BC4F5CCCB6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11947,18 +11947,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DC0DDDB2-17E4-4969-8B4E-7E0405F8E20B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{10C015B4-8FA4-4085-9AC7-4CF7E64FE199}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D4DA040C-399A-47E9-B348-65BC4C122340}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{48EE54BB-086A-4F89-B8DB-A1A2E43DE139}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B5641FD9-CCE9-4866-8D41-997B48BD3C01}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D0D6DE2E-1867-43A6-900F-CA290198765D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F1D93712-6C17-4D47-9250-F110F4B73E85}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{228395E5-3F73-4783-9D6A-C884EEA22A13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{032713D3-62B9-4BC8-AAE1-EDD8DC20D9F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F7554932-5ECD-4E6C-BC80-2B92FB264E3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2EAC371B-65AD-427B-9F78-8FD35A114832}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B2B6C244-93BB-40AA-AC08-4EC32135952F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{86B15CD2-2DBA-4961-86F7-30AA1BB14ED3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{663A7E4A-E928-4AB1-B934-3BE9BC9D21CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{25555EF3-395B-47E2-8460-5B30AB534CC8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36D638E0-EC08-4326-809C-83EB2CEBDC62}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{54BC564A-5A59-4A3D-917D-D8F158187E7E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{70CAB024-B734-4108-8AF0-B2047E2DE286}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2F72C437-1D4C-43CF-99E3-8297CC20DC89}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C048B63B-0369-47B7-9C89-6BB4E86D0B0C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F44950EA-913A-474A-A8D1-D6DF6620D50A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{311312F3-B0A4-43EA-92D8-6DFE2D76B84B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C83D21A1-360C-4AA7-88F8-A053CA85DAAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{75D25105-3196-446C-95B4-77E29A3BDA5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11971,7 +11971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD6BDA1-968D-466D-A8F3-94CD99735DC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566916B2-3C6B-4974-BECE-CE1B3A84D5F6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13138,18 +13138,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF388D5F-B476-4958-872C-178E7D819629}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{265F6C0B-2411-4B73-ADD7-54D8E5214072}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2B061E0E-E2D9-4253-B279-7DEA16EE205E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5F311642-55B8-406B-BF93-9445C0D95157}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{32BC68B8-01B6-49F1-9C9F-AFE74851FD1C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CFB3E243-AC0C-4D52-A060-42F82FA631B4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FA7FB0C5-1780-42EB-9D79-5058999B905E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{947392B2-6650-4D00-AA1F-9FE91C42E4C1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8DB068C5-E92D-4D79-AB8F-D8EF6E72DC2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{17F510A6-DB18-4AED-BDD9-71C711EB024E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7DD23B14-22F3-4989-831E-872121C590DA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CC29D941-D641-4698-A454-D2184DAD0A03}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2E2E5CCE-EDD6-4CAB-B997-DDC22638A8E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF6B9DFB-75A6-4351-8913-FC76D1C20571}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6EB70FBB-1C52-4896-AF90-B4D90AFFE2A1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1B840ABA-B39B-4810-97D5-4B9A95E30283}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F498EC14-82D2-46FC-A3C7-8E4745277AB3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5C130093-58D2-43F9-A507-1ADDAF408BE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AF0CA3AA-0587-46F5-A33F-BC5FDA4A6ABD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2A5F1933-AAB1-49F8-92D9-DBD0CE6171B0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22EFCA85-BC2C-4138-8E5B-766BE3C6F293}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CF017893-D877-4693-8FBB-79345C67FF8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC79C88B-63F5-4475-A7A2-AABA21BC42BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC76B850-EB22-4737-8109-CD7155B91372}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13162,7 +13162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFCF76A-E03B-4BBD-A2FC-03B8EA523125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94EB0D1-C699-4DD5-8983-0D8991D2E547}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14329,18 +14329,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6E95E0D6-B401-4862-8D7A-0AE030FCF45A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{42E1C1C1-7D9C-4353-B2E0-B1158F5B16D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3BCECAF1-68D5-4F67-8872-F97AC62C47B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{660B9949-4A93-4906-8AF5-0F9B83990630}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{712E7538-DD3E-44CD-B49A-75A5306E3E4A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6C52C593-34FC-450C-9EB4-726519D27719}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6C235626-0CBD-4DD6-A031-B7CB5A923E58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{85C71795-E623-4176-820C-016449F27905}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{53986779-D6FA-4DEB-8838-E35D411C5E92}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4305DDFD-E5CA-44C6-9E4A-A9A8C84F4570}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{497CE6CC-936F-43C3-813D-285E8BA6D5B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{31293411-EEC6-4E8E-90EB-70C502EE2BAC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A5805BE9-C74E-475B-8EEA-C56C9C910BFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5BBB53BA-8D1E-4FA2-A0ED-2ADE83AAC572}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0DC843C6-1BCA-4E0E-9B8D-1280DEEB290A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D12955C5-8182-448D-BDAA-911B1B75D38F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FBF30DC5-EF00-4986-81E0-853EBE418ACB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E86045B-AB23-40E3-AA9F-C4A576B4590B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F688D5CD-32D7-46E2-B856-88166962F959}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{09ECFD35-F047-4ECC-9F94-1D4549E3D2E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AAB77982-3409-4476-A4DA-8CEE2C2A92BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2511C22C-4D78-4004-98BA-1D869CA3319A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6F95075A-569B-46C9-8B93-15FCD104F7A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B069CCCD-CC59-4C35-A8FB-210381BC2EAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14353,7 +14353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB0FB4-FB9D-4CBC-A4E4-C5D1A5DD0863}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A22A127-01FF-4B8C-A872-03D889022669}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15516,18 +15516,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3DB47A4A-7D28-483A-8859-EB8139399FC2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD8B2371-91FF-4592-8FFE-AC88BBD72921}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{947CD8EA-4191-4C9A-BA5C-AFB100746604}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DDD8D090-99A2-4792-A27B-56536DF2DE7B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB574D44-5BF9-4FDE-84D5-E9F8F376B28D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E72A5919-E47A-45C2-838A-10BD593041EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A97B3EC2-75D0-48F7-AD78-E29E6BA16AE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0C0216DF-C46F-4A9A-92C9-F4FA77BCFF5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{206CC6AA-B7A1-4CFE-9E85-85184813DB1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{77B25676-4D5D-423B-B7CC-5A81A261E318}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AA777A89-4FF8-4575-85A7-0CE61F6FB591}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{575D4C36-FB83-4797-A4B8-6C17B8B4A908}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{87ABC541-AF40-4D8B-A10D-54F2B39DA081}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8B82FFE4-BDA6-41D4-A2CA-6258DCFC64C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FF08DF39-0CC6-44FF-8099-D29417F2E512}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8944C0ED-20ED-4D91-A2EC-49E6D168E31C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B3240001-C40B-4FB7-8432-8AA9ABCEDFDB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8042EEA4-D451-4B2D-A03A-85F0AA77F326}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5358B137-68F5-4A2C-B831-1775D6515194}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{49C263EF-CF86-4619-BB2C-8D4F638CD1C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{58CE5FF9-9D62-404B-8D69-27ABDC03C6C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DD8E6872-D821-4236-8C53-933CC3C01DC2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FBE9DFC4-DFFB-4937-86E7-FAA0AB9109BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{030394FE-3291-45A6-90C8-DEDE7D56C0C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
